--- a/Python Language/Projects/Project_06_Extract_CGPA_&_Rolls/Main.Files/NRC.xlsx
+++ b/Python Language/Projects/Project_06_Extract_CGPA_&_Rolls/Main.Files/NRC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codeing\Python Language\Projects\Project_6_Extract_CGPA_&amp;_Rolls\Main.Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codeing\Python Language\Projects\Project_06_Extract_CGPA_&amp;_Rolls\Main.Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B25AA5D-367E-4D7E-9519-87A6566DF127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F411E23E-F2DF-4BB4-9495-0DC57B8DA389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -301,6 +301,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,15 +585,15 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="31.36328125" customWidth="1"/>
     <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1409,7 +1410,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" thickBot="1">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="1">

--- a/Python Language/Projects/Project_06_Extract_CGPA_&_Rolls/Main.Files/NRC.xlsx
+++ b/Python Language/Projects/Project_06_Extract_CGPA_&_Rolls/Main.Files/NRC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codeing\Python Language\Projects\Project_06_Extract_CGPA_&amp;_Rolls\Main.Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F411E23E-F2DF-4BB4-9495-0DC57B8DA389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1286A45B-EDBC-4ECA-9FD0-9ADA87F3E845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
   <si>
     <t>MEHEDI HASAN RANA</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>MAHIDUL ISLAM OVI</t>
-  </si>
-  <si>
-    <t>MD. MEHEDUL ISLAM</t>
   </si>
   <si>
     <t>MUHAMMAD KHALID HASAN MILON</t>
@@ -213,6 +210,24 @@
   </si>
   <si>
     <t xml:space="preserve">    1st Semester</t>
+  </si>
+  <si>
+    <t>4th Semester</t>
+  </si>
+  <si>
+    <t>Nazmul Hasan Nahin</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -254,15 +269,21 @@
       <name val="Calibri "/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -272,36 +293,67 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color theme="1"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color theme="1"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color theme="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -593,65 +645,71 @@
     <col min="1" max="1" width="31.36328125" customWidth="1"/>
     <col min="3" max="3" width="16.36328125" customWidth="1"/>
     <col min="4" max="4" width="17.6328125" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
+      <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>452068</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>452074</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1">
+      <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>452068</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>452074</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>635602</v>
       </c>
       <c r="C4" s="4">
@@ -660,712 +718,754 @@
       <c r="D4" s="4">
         <v>2.8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1">
+      <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
-      <c r="A5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>635666</v>
       </c>
       <c r="C5" s="4">
         <v>3.1</v>
       </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1">
+      <c r="A6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="7">
         <v>645107</v>
       </c>
       <c r="C6" s="4">
         <v>3.3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>2.87</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>3.07</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>652808</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>3.75</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>2.82</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>652810</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>3.23</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>2.99</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>2.76</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>652817</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>3.43</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>2.93</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>2.99</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>652818</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>3.83</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>3.17</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>652819</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>3.45</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>2.92</v>
       </c>
       <c r="E11" s="4">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>652821</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>3.08</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>2.4300000000000002</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>2.23</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>652822</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>3.93</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>3.12</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>652824</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>3.35</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>2.64</v>
       </c>
       <c r="E14" s="4">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>652828</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>3.15</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>2.62</v>
       </c>
       <c r="E15" s="4">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>652829</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>3.08</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>2.67</v>
       </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1">
+      <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>652830</v>
       </c>
       <c r="C17" s="4">
         <v>3.6</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>2.75</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>2.5099999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>652831</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>3.25</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>2.87</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>2.77</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>652833</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>3.38</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>2.71</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>2.74</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>652834</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>2.95</v>
       </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>652836</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>2.88</v>
       </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+      <c r="D21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1">
+      <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>652837</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>3.08</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>3.01</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>2.71</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1">
+      <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>652838</v>
       </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1">
+      <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>652839</v>
       </c>
       <c r="C24" s="4">
         <v>2.9</v>
       </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1">
+      <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>652841</v>
       </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1">
+      <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>652842</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>3.53</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>2.87</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>2.93</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1">
+      <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>652843</v>
       </c>
       <c r="C27" s="4">
         <v>3</v>
       </c>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="D27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1">
+      <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>652846</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>3.43</v>
       </c>
       <c r="D28" s="4">
         <v>2.8</v>
       </c>
-      <c r="E28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+      <c r="E28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1">
+      <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>652847</v>
       </c>
       <c r="C29" s="4">
         <v>3.2</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>2.54</v>
       </c>
-      <c r="E29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
+      <c r="E29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1">
+      <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>652848</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>3.43</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>2.5099999999999998</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1">
+      <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>652853</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>2.93</v>
       </c>
-      <c r="D31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+      <c r="D31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1">
+      <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>652854</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>3.13</v>
       </c>
-      <c r="D32" t="s">
-        <v>42</v>
+      <c r="D32" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E32" s="4">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1">
+      <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>652855</v>
       </c>
       <c r="C33" s="4">
         <v>3.5</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>2.87</v>
       </c>
-      <c r="E33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
+      <c r="E33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1">
+      <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>652857</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>3.03</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>2.88</v>
       </c>
-      <c r="E34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
+      <c r="E34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1">
+      <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>652858</v>
       </c>
       <c r="C35" s="4">
         <v>3.1</v>
       </c>
-      <c r="D35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="1">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1">
+      <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>652864</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>3.13</v>
       </c>
-      <c r="D36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
+      <c r="D36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1">
+      <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>652867</v>
       </c>
       <c r="C37" s="4">
         <v>3.5</v>
       </c>
-      <c r="D37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
+      <c r="D37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1">
+      <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>652868</v>
       </c>
-      <c r="C38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
+      <c r="C38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1">
+      <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>652870</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>3.13</v>
       </c>
-      <c r="D39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40">
+      <c r="D39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1">
+      <c r="A40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="1">
         <v>652881</v>
       </c>
       <c r="C40" s="4">
         <v>3.1</v>
       </c>
-      <c r="D40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41">
+      <c r="D40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1">
+      <c r="A41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="1">
         <v>652883</v>
       </c>
       <c r="C41" s="4">
         <v>3.3</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>2.36</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>2.21</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1">
+      <c r="A42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="1">
+        <v>652884</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1">
+      <c r="A43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B42">
-        <v>652884</v>
-      </c>
-      <c r="C42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>652885</v>
       </c>
-      <c r="C43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" t="s">
-        <v>42</v>
+      <c r="C43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E43" s="4">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="1">
         <v>666327</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>3.95</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>3.12</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>2.92</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1">
-      <c r="A45" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="1">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1">
+      <c r="A45" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7">
         <v>674656</v>
       </c>
       <c r="C45" s="4">
         <v>3.6</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>3.19</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1">
-      <c r="A46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1">
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1">
         <v>676956</v>
       </c>
       <c r="C46" s="4">
@@ -1377,71 +1477,82 @@
       <c r="E46" s="4">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47">
-        <v>652877</v>
-      </c>
-      <c r="C47">
-        <v>2.95</v>
-      </c>
-      <c r="D47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1">
-      <c r="A48" t="s">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1">
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="1">
+        <v>679355</v>
+      </c>
+      <c r="C47" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2.92</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1">
+      <c r="A48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="7">
+        <v>683110</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3.03</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1">
+      <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B48">
-        <v>679355</v>
-      </c>
-      <c r="C48" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="D48">
-        <v>2.92</v>
-      </c>
-      <c r="E48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" thickBot="1">
-      <c r="A49" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="1">
-        <v>683110</v>
-      </c>
-      <c r="C49">
-        <v>3.03</v>
-      </c>
-      <c r="D49">
-        <v>2.54</v>
-      </c>
-      <c r="E49" s="4">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50">
+      <c r="B49" s="3">
         <v>685904</v>
       </c>
-      <c r="C50">
+      <c r="C49" s="3">
         <v>3.43</v>
       </c>
-      <c r="D50">
+      <c r="D49" s="3">
         <v>3.29</v>
       </c>
-      <c r="E50">
+      <c r="E49" s="3">
         <v>3.26</v>
       </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1">
+      <c r="A50" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="10">
+        <v>672751</v>
+      </c>
+      <c r="C50" s="3">
+        <v>3.63</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3.32</v>
+      </c>
+      <c r="E50" s="11">
+        <v>3.25</v>
+      </c>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="E54" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python Language/Projects/Project_06_Extract_CGPA_&_Rolls/Main.Files/NRC.xlsx
+++ b/Python Language/Projects/Project_06_Extract_CGPA_&_Rolls/Main.Files/NRC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codeing\Python Language\Projects\Project_06_Extract_CGPA_&amp;_Rolls\Main.Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1286A45B-EDBC-4ECA-9FD0-9ADA87F3E845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A38551-913D-4B7A-92E9-A7655BE3240E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="57">
   <si>
     <t>MEHEDI HASAN RANA</t>
   </si>
@@ -148,6 +148,48 @@
   </si>
   <si>
     <t xml:space="preserve">                       Name</t>
+  </si>
+  <si>
+    <t>Md. Mahi Romjan</t>
+  </si>
+  <si>
+    <t>Muzahidul Islam Saim</t>
+  </si>
+  <si>
+    <t>Rifat</t>
+  </si>
+  <si>
+    <t>Rasibul Hasan</t>
+  </si>
+  <si>
+    <t>3rd Semester</t>
+  </si>
+  <si>
+    <t>MD. EBRAHIM</t>
+  </si>
+  <si>
+    <t>Md. Alif Mia</t>
+  </si>
+  <si>
+    <t>MD. JOBAEID KHA</t>
+  </si>
+  <si>
+    <t>NOR-A-ALAHI SAKIM</t>
+  </si>
+  <si>
+    <t>EMTIAZ AHMED SAMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2nd Semester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1st Semester</t>
+  </si>
+  <si>
+    <t>4th Semester</t>
+  </si>
+  <si>
+    <t>Nazmul Hasan Nahin</t>
   </si>
   <si>
     <r>
@@ -167,7 +209,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -176,65 +217,26 @@
     </r>
   </si>
   <si>
-    <t>Md. Mahi Romjan</t>
-  </si>
-  <si>
-    <t>Muzahidul Islam Saim</t>
-  </si>
-  <si>
-    <t>Rifat</t>
-  </si>
-  <si>
-    <t>Rasibul Hasan</t>
-  </si>
-  <si>
-    <t>3rd Semester</t>
-  </si>
-  <si>
-    <t>MD. EBRAHIM</t>
-  </si>
-  <si>
-    <t>Md. Alif Mia</t>
-  </si>
-  <si>
-    <t>MD. JOBAEID KHA</t>
-  </si>
-  <si>
-    <t>NOR-A-ALAHI SAKIM</t>
-  </si>
-  <si>
-    <t>EMTIAZ AHMED SAMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        2nd Semester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1st Semester</t>
-  </si>
-  <si>
-    <t>4th Semester</t>
-  </si>
-  <si>
-    <t>Nazmul Hasan Nahin</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
+    <r>
+      <t xml:space="preserve">              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,14 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -268,8 +262,21 @@
       <color theme="1"/>
       <name val="Calibri "/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +286,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5B5B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,34 +351,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5B5B"/>
+      <color rgb="FFFF3333"/>
+      <color rgb="FFFF4747"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -634,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -649,7 +678,7 @@
     <col min="6" max="6" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:9" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -657,98 +686,106 @@
         <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>452068</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+      <c r="C2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>452074</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
+      <c r="C3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1">
         <v>635602</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>3.5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2.8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1">
+      <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
-      <c r="A5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>635666</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>3.1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="D5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1">
+      <c r="A6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="6">
         <v>645107</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>3.3</v>
       </c>
       <c r="D6" s="1">
@@ -757,9 +794,11 @@
       <c r="E6" s="1">
         <v>3.07</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
+      <c r="F6" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -769,15 +808,18 @@
       <c r="C7" s="1">
         <v>3.75</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
       <c r="E7" s="1">
         <v>2.82</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
+      <c r="F7" s="1">
+        <v>2.92</v>
+      </c>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -793,9 +835,11 @@
       <c r="E8" s="1">
         <v>2.76</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
+      <c r="F8" s="1">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,9 +855,11 @@
       <c r="E9" s="1">
         <v>2.99</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1">
+      <c r="F9" s="1">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,9 +875,11 @@
       <c r="E10" s="1">
         <v>3.14</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1">
+      <c r="F10" s="1">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -844,12 +892,14 @@
       <c r="D11" s="1">
         <v>2.92</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>2.7</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1">
+      <c r="F11" s="1">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,9 +915,11 @@
       <c r="E12" s="1">
         <v>2.23</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1">
+      <c r="F12" s="1">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -883,9 +935,11 @@
       <c r="E13" s="1">
         <v>2.79</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1">
+      <c r="F13" s="1">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -898,12 +952,14 @@
       <c r="D14" s="1">
         <v>2.64</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>2.4</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1">
+      <c r="F14" s="1">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -916,12 +972,14 @@
       <c r="D15" s="1">
         <v>2.62</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>2.4</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1">
+      <c r="F15" s="1">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -934,10 +992,12 @@
       <c r="D16" s="1">
         <v>2.67</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="1"/>
+      <c r="E16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1">
       <c r="A17" s="1" t="s">
@@ -946,7 +1006,7 @@
       <c r="B17" s="1">
         <v>652830</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>3.6</v>
       </c>
       <c r="D17" s="1">
@@ -955,7 +1015,9 @@
       <c r="E17" s="1">
         <v>2.5099999999999998</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>2.93</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1">
       <c r="A18" s="1" t="s">
@@ -973,7 +1035,9 @@
       <c r="E18" s="1">
         <v>2.77</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>3.13</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1">
       <c r="A19" s="1" t="s">
@@ -991,7 +1055,9 @@
       <c r="E19" s="1">
         <v>2.74</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>3.29</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1">
       <c r="A20" s="1" t="s">
@@ -1003,13 +1069,15 @@
       <c r="C20" s="1">
         <v>2.95</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="1"/>
+      <c r="D20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1">
       <c r="A21" s="1" t="s">
@@ -1021,13 +1089,15 @@
       <c r="C21" s="1">
         <v>2.88</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="1"/>
+      <c r="D21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1">
       <c r="A22" s="1" t="s">
@@ -1045,7 +1115,9 @@
       <c r="E22" s="1">
         <v>2.71</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1">
       <c r="A23" s="1" t="s">
@@ -1054,16 +1126,18 @@
       <c r="B23" s="1">
         <v>652838</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="1"/>
+      <c r="C23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2.52</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1">
       <c r="A24" s="1" t="s">
@@ -1072,16 +1146,18 @@
       <c r="B24" s="1">
         <v>652839</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>2.9</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>41</v>
+      <c r="D24" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="E24" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1">
       <c r="A25" s="1" t="s">
@@ -1090,16 +1166,18 @@
       <c r="B25" s="1">
         <v>652841</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="1"/>
+      <c r="C25" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3.19</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1">
       <c r="A26" s="1" t="s">
@@ -1117,7 +1195,9 @@
       <c r="E26" s="1">
         <v>2.93</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1">
+        <v>3.21</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1">
       <c r="A27" s="1" t="s">
@@ -1126,16 +1206,18 @@
       <c r="B27" s="1">
         <v>652843</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>3</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="1"/>
+      <c r="D27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1">
       <c r="A28" s="1" t="s">
@@ -1147,13 +1229,15 @@
       <c r="C28" s="1">
         <v>3.43</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>2.8</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="1"/>
+      <c r="E28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3.15</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1">
       <c r="A29" s="1" t="s">
@@ -1162,16 +1246,18 @@
       <c r="B29" s="1">
         <v>652847</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>3.2</v>
       </c>
       <c r="D29" s="1">
         <v>2.54</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="1"/>
+      <c r="E29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2.83</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1">
       <c r="A30" s="1" t="s">
@@ -1189,7 +1275,9 @@
       <c r="E30" s="1">
         <v>2.42</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1">
+        <v>2.79</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1">
       <c r="A31" s="1" t="s">
@@ -1201,13 +1289,15 @@
       <c r="C31" s="1">
         <v>2.93</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="1"/>
+      <c r="D31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1">
       <c r="A32" s="1" t="s">
@@ -1219,13 +1309,15 @@
       <c r="C32" s="1">
         <v>3.13</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="D32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="3">
         <v>2.6</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1">
       <c r="A33" s="1" t="s">
@@ -1234,16 +1326,18 @@
       <c r="B33" s="1">
         <v>652855</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>3.5</v>
       </c>
       <c r="D33" s="1">
         <v>2.87</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="1"/>
+      <c r="E33" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3.13</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1">
       <c r="A34" s="1" t="s">
@@ -1258,10 +1352,12 @@
       <c r="D34" s="1">
         <v>2.88</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="1"/>
+      <c r="E34" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3.06</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1">
       <c r="A35" s="1" t="s">
@@ -1270,16 +1366,18 @@
       <c r="B35" s="1">
         <v>652858</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>3.1</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>41</v>
+      <c r="D35" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="E35" s="1">
         <v>2.27</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1">
       <c r="A36" s="1" t="s">
@@ -1291,13 +1389,15 @@
       <c r="C36" s="1">
         <v>3.13</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="1"/>
+      <c r="D36" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1">
       <c r="A37" s="1" t="s">
@@ -1306,16 +1406,18 @@
       <c r="B37" s="1">
         <v>652867</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>3.5</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="1"/>
+      <c r="D37" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1">
       <c r="A38" s="1" t="s">
@@ -1324,16 +1426,18 @@
       <c r="B38" s="1">
         <v>652868</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="1"/>
+      <c r="C38" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1">
       <c r="A39" s="1" t="s">
@@ -1345,13 +1449,15 @@
       <c r="C39" s="1">
         <v>3.13</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="1"/>
+      <c r="D39" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1">
       <c r="A40" s="1" t="s">
@@ -1360,16 +1466,18 @@
       <c r="B40" s="1">
         <v>652881</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>3.1</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="1"/>
+      <c r="D40" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1">
       <c r="A41" s="1" t="s">
@@ -1378,7 +1486,7 @@
       <c r="B41" s="1">
         <v>652883</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>3.3</v>
       </c>
       <c r="D41" s="1">
@@ -1387,7 +1495,9 @@
       <c r="E41" s="1">
         <v>2.21</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1">
       <c r="A42" s="1" t="s">
@@ -1396,16 +1506,18 @@
       <c r="B42" s="1">
         <v>652884</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" s="1"/>
+      <c r="C42" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3.01</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1">
       <c r="A43" s="1" t="s">
@@ -1414,20 +1526,22 @@
       <c r="B43" s="1">
         <v>652885</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="4">
+      <c r="C43" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="3">
         <v>3.2</v>
       </c>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1">
+        <v>3.45</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1">
         <v>666327</v>
@@ -1441,16 +1555,18 @@
       <c r="E44" s="1">
         <v>2.92</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1">
+        <v>2.98</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1">
-      <c r="A45" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="7">
+      <c r="A45" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="6">
         <v>674656</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>3.6</v>
       </c>
       <c r="D45" s="1">
@@ -1459,49 +1575,55 @@
       <c r="E45" s="1">
         <v>2.67</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1">
         <v>676956</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>3.1</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>2.9</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>2.5</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="1">
         <v>679355</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>3.8</v>
       </c>
       <c r="D47" s="1">
         <v>2.92</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="1"/>
+      <c r="E47" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1">
       <c r="A48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="7">
+        <v>44</v>
+      </c>
+      <c r="B48" s="6">
         <v>683110</v>
       </c>
       <c r="C48" s="1">
@@ -1510,49 +1632,55 @@
       <c r="D48" s="1">
         <v>2.54</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>2.4</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="F48" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1">
-      <c r="A49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="3">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="1">
         <v>685904</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="1">
         <v>3.43</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="1">
         <v>3.29</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="1">
         <v>3.26</v>
       </c>
-      <c r="F49" s="3"/>
+      <c r="F49" s="1">
+        <v>3.54</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1">
-      <c r="A50" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="10">
+      <c r="A50" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="9">
         <v>672751</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="14">
         <v>3.63</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="1">
         <v>3.32</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="3">
         <v>3.25</v>
       </c>
-      <c r="F50" s="3"/>
+      <c r="F50" s="1">
+        <v>3.19</v>
+      </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="E54" s="12"/>
+      <c r="E54" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python Language/Projects/Project_06_Extract_CGPA_&_Rolls/Main.Files/NRC.xlsx
+++ b/Python Language/Projects/Project_06_Extract_CGPA_&_Rolls/Main.Files/NRC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codeing\Python Language\Projects\Project_06_Extract_CGPA_&amp;_Rolls\Main.Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A38551-913D-4B7A-92E9-A7655BE3240E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3FE92A-BE04-407A-A70A-4324EBC5ADFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="58">
   <si>
     <t>MEHEDI HASAN RANA</t>
   </si>
@@ -230,6 +230,9 @@
       </rPr>
       <t>F</t>
     </r>
+  </si>
+  <si>
+    <t>5th Semester</t>
   </si>
 </sst>
 </file>
@@ -302,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -347,11 +350,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -376,6 +403,21 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -676,6 +718,7 @@
     <col min="4" max="4" width="17.6328125" customWidth="1"/>
     <col min="5" max="5" width="14.90625" customWidth="1"/>
     <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1">
@@ -691,11 +734,14 @@
       <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="20" t="s">
         <v>53</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1">
@@ -714,7 +760,10 @@
       <c r="E2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -734,8 +783,11 @@
       <c r="E3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>56</v>
+      <c r="F3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1">
@@ -754,8 +806,11 @@
       <c r="E4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="18">
         <v>3.06</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1">
@@ -774,8 +829,11 @@
       <c r="E5" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="18">
         <v>2.92</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1">
@@ -794,8 +852,11 @@
       <c r="E6" s="1">
         <v>3.07</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>56</v>
+      <c r="F6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="23">
+        <v>2.9</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1">
@@ -814,8 +875,11 @@
       <c r="E7" s="1">
         <v>2.82</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="18">
         <v>2.92</v>
+      </c>
+      <c r="G7" s="24">
+        <v>2.86</v>
       </c>
       <c r="I7" s="15"/>
     </row>
@@ -835,8 +899,11 @@
       <c r="E8" s="1">
         <v>2.76</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="18">
         <v>3.33</v>
+      </c>
+      <c r="G8" s="24">
+        <v>3.04</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1">
@@ -855,8 +922,11 @@
       <c r="E9" s="1">
         <v>2.99</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="18">
         <v>3.48</v>
+      </c>
+      <c r="G9" s="24">
+        <v>3.06</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1">
@@ -875,8 +945,11 @@
       <c r="E10" s="1">
         <v>3.14</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="18">
         <v>3.44</v>
+      </c>
+      <c r="G10" s="24">
+        <v>3.23</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1">
@@ -895,8 +968,11 @@
       <c r="E11" s="3">
         <v>2.7</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="18">
         <v>3.24</v>
+      </c>
+      <c r="G11" s="24">
+        <v>2.95</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1">
@@ -915,8 +991,11 @@
       <c r="E12" s="1">
         <v>2.23</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="18">
         <v>2.37</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1">
@@ -935,8 +1014,11 @@
       <c r="E13" s="1">
         <v>2.79</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="18">
         <v>2.98</v>
+      </c>
+      <c r="G13" s="24">
+        <v>3.13</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1">
@@ -955,8 +1037,11 @@
       <c r="E14" s="3">
         <v>2.4</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="18">
         <v>2.54</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1">
@@ -975,8 +1060,11 @@
       <c r="E15" s="3">
         <v>2.4</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="18">
         <v>2.83</v>
+      </c>
+      <c r="G15" s="24">
+        <v>2.84</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1">
@@ -995,11 +1083,14 @@
       <c r="E16" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1">
+      <c r="F16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="24">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1015,11 +1106,14 @@
       <c r="E17" s="1">
         <v>2.5099999999999998</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="18">
         <v>2.93</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1">
+      <c r="G17" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1035,11 +1129,14 @@
       <c r="E18" s="1">
         <v>2.77</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="18">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1">
+      <c r="G18" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1055,11 +1152,14 @@
       <c r="E19" s="1">
         <v>2.74</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="18">
         <v>3.29</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1">
+      <c r="G19" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,11 +1175,14 @@
       <c r="E20" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1">
+      <c r="F20" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1095,11 +1198,14 @@
       <c r="E21" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1">
+      <c r="F21" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1115,11 +1221,14 @@
       <c r="E22" s="1">
         <v>2.71</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1">
+      <c r="F22" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1135,11 +1244,14 @@
       <c r="E23" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="18">
         <v>2.52</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1">
+      <c r="G23" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,11 +1267,14 @@
       <c r="E24" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1">
+      <c r="F24" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1175,11 +1290,14 @@
       <c r="E25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="18">
         <v>3.19</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1">
+      <c r="G25" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1195,11 +1313,14 @@
       <c r="E26" s="1">
         <v>2.93</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="18">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1">
+      <c r="G26" s="24">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1215,11 +1336,14 @@
       <c r="E27" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1">
+      <c r="F27" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1235,11 +1359,14 @@
       <c r="E28" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="18">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1">
+      <c r="G28" s="24">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,11 +1382,14 @@
       <c r="E29" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="18">
         <v>2.83</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1">
+      <c r="G29" s="24">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1275,11 +1405,14 @@
       <c r="E30" s="1">
         <v>2.42</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="18">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1">
+      <c r="G30" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1295,11 +1428,14 @@
       <c r="E31" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1">
+      <c r="F31" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1315,11 +1451,14 @@
       <c r="E32" s="3">
         <v>2.6</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1">
+      <c r="F32" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1335,11 +1474,14 @@
       <c r="E33" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="18">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1">
+      <c r="G33" s="24">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1355,11 +1497,14 @@
       <c r="E34" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="18">
         <v>3.06</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1">
+      <c r="G34" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1375,11 +1520,14 @@
       <c r="E35" s="1">
         <v>2.27</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="19">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1">
+      <c r="G35" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -1395,11 +1543,14 @@
       <c r="E36" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1">
+      <c r="F36" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
@@ -1415,11 +1566,14 @@
       <c r="E37" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1">
+      <c r="F37" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="24">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
@@ -1435,11 +1589,14 @@
       <c r="E38" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1">
+      <c r="F38" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -1455,11 +1612,14 @@
       <c r="E39" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1">
+      <c r="F39" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
@@ -1475,11 +1635,14 @@
       <c r="E40" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1">
+      <c r="F40" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1">
       <c r="A41" s="1" t="s">
         <v>36</v>
       </c>
@@ -1495,11 +1658,14 @@
       <c r="E41" s="1">
         <v>2.21</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1">
+      <c r="F41" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1">
       <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
@@ -1515,11 +1681,14 @@
       <c r="E42" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="18">
         <v>3.01</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1">
+      <c r="G42" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>38</v>
       </c>
@@ -1535,11 +1704,14 @@
       <c r="E43" s="3">
         <v>3.2</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="18">
         <v>3.45</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1">
+      <c r="G43" s="24">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -1555,11 +1727,14 @@
       <c r="E44" s="1">
         <v>2.92</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="18">
         <v>2.98</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1">
+      <c r="G44" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>43</v>
       </c>
@@ -1575,11 +1750,14 @@
       <c r="E45" s="1">
         <v>2.67</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="18">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1">
+      <c r="G45" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
@@ -1595,11 +1773,14 @@
       <c r="E46" s="3">
         <v>2.5</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1">
+      <c r="F46" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -1615,11 +1796,14 @@
       <c r="E47" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1">
+      <c r="F47" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
@@ -1635,11 +1819,14 @@
       <c r="E48" s="3">
         <v>2.4</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1">
+      <c r="F48" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" thickBot="1">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -1655,11 +1842,14 @@
       <c r="E49" s="1">
         <v>3.26</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="18">
         <v>3.54</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1">
+      <c r="G49" s="24">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1">
       <c r="A50" s="8" t="s">
         <v>54</v>
       </c>
@@ -1675,11 +1865,14 @@
       <c r="E50" s="3">
         <v>3.25</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="18">
         <v>3.19</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G50" s="24">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="E54" s="10"/>
     </row>
   </sheetData>
